--- a/wasym/expdata/1001.xlsx
+++ b/wasym/expdata/1001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wasym\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
     <t>cms</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>eta_max</t>
-  </si>
-  <si>
-    <t>pt_min</t>
   </si>
   <si>
     <t>syst_u</t>
@@ -407,7 +404,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -433,28 +430,28 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>4</v>
@@ -465,7 +462,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -480,7 +477,7 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1">
-        <v>25</v>
+        <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -515,7 +512,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -530,7 +527,7 @@
         <v>0.4</v>
       </c>
       <c r="F3" s="1">
-        <v>25</v>
+        <v>0.3</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
@@ -565,7 +562,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -580,7 +577,7 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="1">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
@@ -615,7 +612,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -630,7 +627,7 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="1">
-        <v>25</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -665,7 +662,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -680,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
@@ -715,7 +712,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -730,7 +727,7 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="1">
-        <v>25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
@@ -765,7 +762,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -780,7 +777,7 @@
         <v>1.4</v>
       </c>
       <c r="F8" s="1">
-        <v>25</v>
+        <v>1.3</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
@@ -815,7 +812,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -830,7 +827,7 @@
         <v>1.6</v>
       </c>
       <c r="F9" s="1">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
@@ -865,7 +862,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -880,7 +877,7 @@
         <v>1.8</v>
       </c>
       <c r="F10" s="1">
-        <v>25</v>
+        <v>1.7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
@@ -915,7 +912,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -930,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>25</v>
+        <v>1.9</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
@@ -965,7 +962,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -980,7 +977,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F12" s="1">
-        <v>25</v>
+        <v>2.1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>6</v>
@@ -1015,7 +1012,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -1030,7 +1027,7 @@
         <v>2.4</v>
       </c>
       <c r="F13" s="1">
-        <v>25</v>
+        <v>2.29</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
@@ -1065,7 +1062,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
@@ -1080,7 +1077,7 @@
         <v>2.7</v>
       </c>
       <c r="F14" s="1">
-        <v>25</v>
+        <v>2.52</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>6</v>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -1130,7 +1127,7 @@
         <v>3.2</v>
       </c>
       <c r="F15" s="1">
-        <v>25</v>
+        <v>2.81</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>6</v>

--- a/wasym/expdata/1001.xlsx
+++ b/wasym/expdata/1001.xlsx
@@ -71,9 +71,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t xml:space="preserve">D0(W) </t>
-  </si>
-  <si>
     <t>value_scaled</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>stat_scaled</t>
+  </si>
+  <si>
+    <t>D0(W)</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -436,13 +436,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>

--- a/wasym/expdata/1001.xlsx
+++ b/wasym/expdata/1001.xlsx
@@ -29,9 +29,6 @@
     <t>cms</t>
   </si>
   <si>
-    <t>eta</t>
-  </si>
-  <si>
     <t>boson</t>
   </si>
   <si>
@@ -56,15 +53,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>A_eta_W</t>
-  </si>
-  <si>
-    <t>eta_min</t>
-  </si>
-  <si>
-    <t>eta_max</t>
-  </si>
-  <si>
     <t>syst_u</t>
   </si>
   <si>
@@ -81,6 +69,18 @@
   </si>
   <si>
     <t>D0(W)</t>
+  </si>
+  <si>
+    <t>Y_min</t>
+  </si>
+  <si>
+    <t>Y_max</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>W_asym</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -415,57 +415,57 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -480,7 +480,7 @@
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1">
         <v>1.39</v>
@@ -504,18 +504,18 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -530,7 +530,7 @@
         <v>0.3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
         <v>4.28</v>
@@ -554,18 +554,18 @@
         <v>1.9E-3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -580,7 +580,7 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
         <v>7.28</v>
@@ -604,18 +604,18 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -630,7 +630,7 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
         <v>10.59</v>
@@ -654,18 +654,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -680,7 +680,7 @@
         <v>0.9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
         <v>14.45</v>
@@ -704,18 +704,18 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -730,7 +730,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
         <v>18.63</v>
@@ -754,18 +754,18 @@
         <v>3.9000000000000003E-3</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -780,7 +780,7 @@
         <v>1.3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1">
         <v>22.5</v>
@@ -804,18 +804,18 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -830,7 +830,7 @@
         <v>1.5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <v>26.12</v>
@@ -854,18 +854,18 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -880,7 +880,7 @@
         <v>1.7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
         <v>30.06</v>
@@ -904,18 +904,18 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>
@@ -930,7 +930,7 @@
         <v>1.9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1">
         <v>34.729999999999997</v>
@@ -954,18 +954,18 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <v>1960</v>
@@ -980,7 +980,7 @@
         <v>2.1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
         <v>40.590000000000003</v>
@@ -1004,18 +1004,18 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
         <v>1960</v>
@@ -1030,7 +1030,7 @@
         <v>2.29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
         <v>47.65</v>
@@ -1054,18 +1054,18 @@
         <v>5.6000000000000008E-3</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>1960</v>
@@ -1080,7 +1080,7 @@
         <v>2.52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
         <v>59.04</v>
@@ -1104,18 +1104,18 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>1960</v>
@@ -1130,7 +1130,7 @@
         <v>2.81</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1">
         <v>77.239999999999995</v>
@@ -1154,10 +1154,10 @@
         <v>6.6E-3</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/wasym/expdata/1001.xlsx
+++ b/wasym/expdata/1001.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wasym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72390FA4-72B9-2C4E-B8E9-9AE99A40F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -53,9 +63,6 @@
     <t>target</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>stat_u</t>
   </si>
   <si>
@@ -81,12 +88,15 @@
   </si>
   <si>
     <t>W_asym</t>
+  </si>
+  <si>
+    <t>syst_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -400,20 +410,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="15" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="15" width="10.83203125" style="1" customWidth="1"/>
     <col min="1027" max="1029" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -424,34 +434,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -460,9 +470,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -504,15 +514,15 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -554,15 +564,15 @@
         <v>1.9E-3</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -604,15 +614,15 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -654,15 +664,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -704,15 +714,15 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -754,15 +764,15 @@
         <v>3.9000000000000003E-3</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -804,15 +814,15 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -854,15 +864,15 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -904,15 +914,15 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -954,15 +964,15 @@
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -1004,15 +1014,15 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1054,15 +1064,15 @@
         <v>5.6000000000000008E-3</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -1104,15 +1114,15 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -1154,10 +1164,10 @@
         <v>6.6E-3</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/wasym/expdata/1001.xlsx
+++ b/wasym/expdata/1001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72390FA4-72B9-2C4E-B8E9-9AE99A40F867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F8F20-C100-0F4C-8FC6-3D58DAC0A757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34700" yWindow="5320" windowWidth="28800" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>W_asym</t>
   </si>
   <si>
-    <t>syst_c</t>
+    <t>syst_u</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
